--- a/contratos/contratos-9-2017.xlsx
+++ b/contratos/contratos-9-2017.xlsx
@@ -973,7 +973,7 @@
     <t>INGANI ALBERTO RAMON</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1282,7 +1282,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1309,7 +1309,7 @@
     <t>SCEVOLA FABIAN RICARDO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1429,7 +1429,7 @@
     <t>SERVICIO PENITENCIARIO DE ENTRE RIOS</t>
   </si>
   <si>
-    <t>MARTINEZ, CAYETANO JAVIER</t>
+    <t>MARTINEZ. CAYETANO JAVIER</t>
   </si>
   <si>
     <t>MERIANO  ALCIDES DARIO</t>
@@ -1831,7 +1831,7 @@
     <t>PREVISORA URUGUAY</t>
   </si>
   <si>
-    <t>MARTINEZ, CAYETANO JAVIER ( SP )</t>
+    <t>MARTINEZ. CAYETANO JAVIER ( SP )</t>
   </si>
   <si>
     <t>FLETES DACUEZ</t>
@@ -1918,766 +1918,766 @@
     <t>78</t>
   </si>
   <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>14.264,00</t>
-  </si>
-  <si>
-    <t>12.640,00</t>
-  </si>
-  <si>
-    <t>36.060,00</t>
-  </si>
-  <si>
-    <t>33.600,00</t>
-  </si>
-  <si>
-    <t>18.920,00</t>
-  </si>
-  <si>
-    <t>78.550,00</t>
-  </si>
-  <si>
-    <t>284.860,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>70.920,00</t>
-  </si>
-  <si>
-    <t>248.000,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>140.000,00</t>
-  </si>
-  <si>
-    <t>473.400,00</t>
-  </si>
-  <si>
-    <t>390.000,00</t>
-  </si>
-  <si>
-    <t>1.080.000,00</t>
-  </si>
-  <si>
-    <t>80,64</t>
-  </si>
-  <si>
-    <t>6.280,56</t>
-  </si>
-  <si>
-    <t>375.664,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>11.300,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>377,02</t>
-  </si>
-  <si>
-    <t>88.000,00</t>
-  </si>
-  <si>
-    <t>1.106,00</t>
-  </si>
-  <si>
-    <t>408.763,49</t>
-  </si>
-  <si>
-    <t>22.309,60</t>
-  </si>
-  <si>
-    <t>11.018,84</t>
-  </si>
-  <si>
-    <t>3.342,50</t>
-  </si>
-  <si>
-    <t>51.632,02</t>
-  </si>
-  <si>
-    <t>6.949,30</t>
-  </si>
-  <si>
-    <t>17.927,00</t>
-  </si>
-  <si>
-    <t>14.927,84</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>18.990,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>3.060,00</t>
-  </si>
-  <si>
-    <t>17.737,00</t>
-  </si>
-  <si>
-    <t>7.880,00</t>
-  </si>
-  <si>
-    <t>25,56</t>
-  </si>
-  <si>
-    <t>50.240,00</t>
-  </si>
-  <si>
-    <t>119.635,99</t>
-  </si>
-  <si>
-    <t>2.816,20</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>599,82</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>132.263,91</t>
-  </si>
-  <si>
-    <t>223.359,96</t>
-  </si>
-  <si>
-    <t>1.057,40</t>
-  </si>
-  <si>
-    <t>2.244,39</t>
-  </si>
-  <si>
-    <t>113.419,80</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>1.243,14</t>
-  </si>
-  <si>
-    <t>90.815,00</t>
-  </si>
-  <si>
-    <t>95.583,40</t>
-  </si>
-  <si>
-    <t>4.543,08</t>
-  </si>
-  <si>
-    <t>300.000,00</t>
-  </si>
-  <si>
-    <t>4.246,35</t>
-  </si>
-  <si>
-    <t>20.428,00</t>
-  </si>
-  <si>
-    <t>116.195,62</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>12.652,00</t>
-  </si>
-  <si>
-    <t>5.875,56</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>243,21</t>
-  </si>
-  <si>
-    <t>13.302,29</t>
-  </si>
-  <si>
-    <t>2.110,00</t>
-  </si>
-  <si>
-    <t>2.125,00</t>
-  </si>
-  <si>
-    <t>2.800,44</t>
-  </si>
-  <si>
-    <t>2.199,96</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>15.266,22</t>
-  </si>
-  <si>
-    <t>3.558,47</t>
-  </si>
-  <si>
-    <t>15.340,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>8.632,83</t>
-  </si>
-  <si>
-    <t>328.864,64</t>
-  </si>
-  <si>
-    <t>33.865,40</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>4.556,30</t>
-  </si>
-  <si>
-    <t>3.670,00</t>
-  </si>
-  <si>
-    <t>113,50</t>
-  </si>
-  <si>
-    <t>612,00</t>
-  </si>
-  <si>
-    <t>14.044,82</t>
-  </si>
-  <si>
-    <t>5.410,00</t>
-  </si>
-  <si>
-    <t>1.053.000,00</t>
-  </si>
-  <si>
-    <t>11.595,00</t>
-  </si>
-  <si>
-    <t>32.680,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>10.242,75</t>
-  </si>
-  <si>
-    <t>31.749,00</t>
-  </si>
-  <si>
-    <t>356,00</t>
-  </si>
-  <si>
-    <t>1.121,32</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>7.725,33</t>
-  </si>
-  <si>
-    <t>13.032,77</t>
-  </si>
-  <si>
-    <t>513,00</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>10.340,00</t>
-  </si>
-  <si>
-    <t>1.473,60</t>
-  </si>
-  <si>
-    <t>1.120,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.751,85</t>
-  </si>
-  <si>
-    <t>6.216,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>245,00</t>
-  </si>
-  <si>
-    <t>439,32</t>
-  </si>
-  <si>
-    <t>2.540,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>11.120,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>192.859,00</t>
-  </si>
-  <si>
-    <t>755,00</t>
-  </si>
-  <si>
-    <t>578,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>600.235,87</t>
-  </si>
-  <si>
-    <t>29,40</t>
-  </si>
-  <si>
-    <t>69.013,34</t>
-  </si>
-  <si>
-    <t>66,43</t>
-  </si>
-  <si>
-    <t>36.291,06</t>
-  </si>
-  <si>
-    <t>188,00</t>
-  </si>
-  <si>
-    <t>9.180,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>1.885,00</t>
-  </si>
-  <si>
-    <t>299,50</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>2.043,04</t>
-  </si>
-  <si>
-    <t>2.530,00</t>
-  </si>
-  <si>
-    <t>4.409,00</t>
-  </si>
-  <si>
-    <t>1.015,50</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>196,94</t>
-  </si>
-  <si>
-    <t>4.599,99</t>
-  </si>
-  <si>
-    <t>565,00</t>
-  </si>
-  <si>
-    <t>2.112,00</t>
-  </si>
-  <si>
-    <t>45,01</t>
-  </si>
-  <si>
-    <t>3.502,00</t>
-  </si>
-  <si>
-    <t>1.474,66</t>
-  </si>
-  <si>
-    <t>20.236,94</t>
-  </si>
-  <si>
-    <t>109,24</t>
-  </si>
-  <si>
-    <t>5.532,00</t>
-  </si>
-  <si>
-    <t>2.444,27</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>197,20</t>
-  </si>
-  <si>
-    <t>34.344,00</t>
-  </si>
-  <si>
-    <t>10.621,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>1.417,67</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>9.650,00</t>
-  </si>
-  <si>
-    <t>134,00</t>
-  </si>
-  <si>
-    <t>427.963,96</t>
-  </si>
-  <si>
-    <t>1.498,00</t>
-  </si>
-  <si>
-    <t>3.390,00</t>
-  </si>
-  <si>
-    <t>3.960,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>20.160,00</t>
-  </si>
-  <si>
-    <t>115.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>6.341,43</t>
-  </si>
-  <si>
-    <t>918,10</t>
-  </si>
-  <si>
-    <t>2.896,99</t>
-  </si>
-  <si>
-    <t>4.511,00</t>
-  </si>
-  <si>
-    <t>767,00</t>
-  </si>
-  <si>
-    <t>36.474,20</t>
-  </si>
-  <si>
-    <t>20.885,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>42.510,33</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>6.630,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>27.776,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>12.380,00</t>
-  </si>
-  <si>
-    <t>13.485,00</t>
-  </si>
-  <si>
-    <t>234,06</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>21.978,00</t>
-  </si>
-  <si>
-    <t>4.865,00</t>
-  </si>
-  <si>
-    <t>2.622,40</t>
-  </si>
-  <si>
-    <t>374,14</t>
-  </si>
-  <si>
-    <t>6.350,00</t>
-  </si>
-  <si>
-    <t>1.451,00</t>
-  </si>
-  <si>
-    <t>10.781,10</t>
-  </si>
-  <si>
-    <t>154,56</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>7.082,36</t>
-  </si>
-  <si>
-    <t>15,96</t>
-  </si>
-  <si>
-    <t>3.690,00</t>
-  </si>
-  <si>
-    <t>51.232,10</t>
-  </si>
-  <si>
-    <t>3.984,95</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>694,30</t>
-  </si>
-  <si>
-    <t>3.420,00</t>
-  </si>
-  <si>
-    <t>3.938,00</t>
-  </si>
-  <si>
-    <t>2.370,36</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>8.762,77</t>
-  </si>
-  <si>
-    <t>9.207,61</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>199.500,00</t>
-  </si>
-  <si>
-    <t>3.406.397,05</t>
-  </si>
-  <si>
-    <t>28.800,00</t>
-  </si>
-  <si>
-    <t>439.995,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>144.500,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>249.350,00</t>
-  </si>
-  <si>
-    <t>347.000,00</t>
-  </si>
-  <si>
-    <t>137.370,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>140.250,00</t>
-  </si>
-  <si>
-    <t>15.456,23</t>
-  </si>
-  <si>
-    <t>122.064,19</t>
-  </si>
-  <si>
-    <t>741.015,43</t>
-  </si>
-  <si>
-    <t>430.117,68</t>
-  </si>
-  <si>
-    <t>160.350,00</t>
-  </si>
-  <si>
-    <t>27.468,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>37.800,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>563.800,00</t>
-  </si>
-  <si>
-    <t>1.027,21</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>59.259,00</t>
-  </si>
-  <si>
-    <t>5.125,00</t>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>14264.00</t>
+  </si>
+  <si>
+    <t>12640.00</t>
+  </si>
+  <si>
+    <t>36060.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>18920.00</t>
+  </si>
+  <si>
+    <t>78550.00</t>
+  </si>
+  <si>
+    <t>284860.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>70920.00</t>
+  </si>
+  <si>
+    <t>248000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>140000.00</t>
+  </si>
+  <si>
+    <t>473400.00</t>
+  </si>
+  <si>
+    <t>390000.00</t>
+  </si>
+  <si>
+    <t>1080000.00</t>
+  </si>
+  <si>
+    <t>80.64</t>
+  </si>
+  <si>
+    <t>6280.56</t>
+  </si>
+  <si>
+    <t>375664.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>11300.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>377.02</t>
+  </si>
+  <si>
+    <t>88000.00</t>
+  </si>
+  <si>
+    <t>1106.00</t>
+  </si>
+  <si>
+    <t>408763.49</t>
+  </si>
+  <si>
+    <t>22309.60</t>
+  </si>
+  <si>
+    <t>11018.84</t>
+  </si>
+  <si>
+    <t>3342.50</t>
+  </si>
+  <si>
+    <t>51632.02</t>
+  </si>
+  <si>
+    <t>6949.30</t>
+  </si>
+  <si>
+    <t>17927.00</t>
+  </si>
+  <si>
+    <t>14927.84</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>18990.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>3060.00</t>
+  </si>
+  <si>
+    <t>17737.00</t>
+  </si>
+  <si>
+    <t>7880.00</t>
+  </si>
+  <si>
+    <t>25.56</t>
+  </si>
+  <si>
+    <t>50240.00</t>
+  </si>
+  <si>
+    <t>119635.99</t>
+  </si>
+  <si>
+    <t>2816.20</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>599.82</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>132263.91</t>
+  </si>
+  <si>
+    <t>223359.96</t>
+  </si>
+  <si>
+    <t>1057.40</t>
+  </si>
+  <si>
+    <t>2244.39</t>
+  </si>
+  <si>
+    <t>113419.80</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>1243.14</t>
+  </si>
+  <si>
+    <t>90815.00</t>
+  </si>
+  <si>
+    <t>95583.40</t>
+  </si>
+  <si>
+    <t>4543.08</t>
+  </si>
+  <si>
+    <t>300000.00</t>
+  </si>
+  <si>
+    <t>4246.35</t>
+  </si>
+  <si>
+    <t>20428.00</t>
+  </si>
+  <si>
+    <t>116195.62</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>12652.00</t>
+  </si>
+  <si>
+    <t>5875.56</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>243.21</t>
+  </si>
+  <si>
+    <t>13302.29</t>
+  </si>
+  <si>
+    <t>2110.00</t>
+  </si>
+  <si>
+    <t>2125.00</t>
+  </si>
+  <si>
+    <t>2800.44</t>
+  </si>
+  <si>
+    <t>2199.96</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>15266.22</t>
+  </si>
+  <si>
+    <t>3558.47</t>
+  </si>
+  <si>
+    <t>15340.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>8632.83</t>
+  </si>
+  <si>
+    <t>328864.64</t>
+  </si>
+  <si>
+    <t>33865.40</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4556.30</t>
+  </si>
+  <si>
+    <t>3670.00</t>
+  </si>
+  <si>
+    <t>113.50</t>
+  </si>
+  <si>
+    <t>612.00</t>
+  </si>
+  <si>
+    <t>14044.82</t>
+  </si>
+  <si>
+    <t>5410.00</t>
+  </si>
+  <si>
+    <t>1053000.00</t>
+  </si>
+  <si>
+    <t>11595.00</t>
+  </si>
+  <si>
+    <t>32680.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>10242.75</t>
+  </si>
+  <si>
+    <t>31749.00</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>1121.32</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>7725.33</t>
+  </si>
+  <si>
+    <t>13032.77</t>
+  </si>
+  <si>
+    <t>513.00</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>10340.00</t>
+  </si>
+  <si>
+    <t>1473.60</t>
+  </si>
+  <si>
+    <t>1120.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1751.85</t>
+  </si>
+  <si>
+    <t>6216.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>439.32</t>
+  </si>
+  <si>
+    <t>2540.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>11120.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>192859.00</t>
+  </si>
+  <si>
+    <t>755.00</t>
+  </si>
+  <si>
+    <t>578.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>600235.87</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>69013.34</t>
+  </si>
+  <si>
+    <t>66.43</t>
+  </si>
+  <si>
+    <t>36291.06</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>9180.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>1885.00</t>
+  </si>
+  <si>
+    <t>299.50</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>2043.04</t>
+  </si>
+  <si>
+    <t>2530.00</t>
+  </si>
+  <si>
+    <t>4409.00</t>
+  </si>
+  <si>
+    <t>1015.50</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>196.94</t>
+  </si>
+  <si>
+    <t>4599.99</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>2112.00</t>
+  </si>
+  <si>
+    <t>45.01</t>
+  </si>
+  <si>
+    <t>3502.00</t>
+  </si>
+  <si>
+    <t>1474.66</t>
+  </si>
+  <si>
+    <t>20236.94</t>
+  </si>
+  <si>
+    <t>109.24</t>
+  </si>
+  <si>
+    <t>5532.00</t>
+  </si>
+  <si>
+    <t>2444.27</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>197.20</t>
+  </si>
+  <si>
+    <t>34344.00</t>
+  </si>
+  <si>
+    <t>10621.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>1417.67</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>9650.00</t>
+  </si>
+  <si>
+    <t>134.00</t>
+  </si>
+  <si>
+    <t>427963.96</t>
+  </si>
+  <si>
+    <t>1498.00</t>
+  </si>
+  <si>
+    <t>3390.00</t>
+  </si>
+  <si>
+    <t>3960.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>20160.00</t>
+  </si>
+  <si>
+    <t>115000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>6341.43</t>
+  </si>
+  <si>
+    <t>918.10</t>
+  </si>
+  <si>
+    <t>2896.99</t>
+  </si>
+  <si>
+    <t>4511.00</t>
+  </si>
+  <si>
+    <t>767.00</t>
+  </si>
+  <si>
+    <t>36474.20</t>
+  </si>
+  <si>
+    <t>20885.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>42510.33</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>6630.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>27776.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>12380.00</t>
+  </si>
+  <si>
+    <t>13485.00</t>
+  </si>
+  <si>
+    <t>234.06</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>21978.00</t>
+  </si>
+  <si>
+    <t>4865.00</t>
+  </si>
+  <si>
+    <t>2622.40</t>
+  </si>
+  <si>
+    <t>374.14</t>
+  </si>
+  <si>
+    <t>6350.00</t>
+  </si>
+  <si>
+    <t>1451.00</t>
+  </si>
+  <si>
+    <t>10781.10</t>
+  </si>
+  <si>
+    <t>154.56</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>7082.36</t>
+  </si>
+  <si>
+    <t>15.96</t>
+  </si>
+  <si>
+    <t>3690.00</t>
+  </si>
+  <si>
+    <t>51232.10</t>
+  </si>
+  <si>
+    <t>3984.95</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>694.30</t>
+  </si>
+  <si>
+    <t>3420.00</t>
+  </si>
+  <si>
+    <t>3938.00</t>
+  </si>
+  <si>
+    <t>2370.36</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>8762.77</t>
+  </si>
+  <si>
+    <t>9207.61</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>199500.00</t>
+  </si>
+  <si>
+    <t>3406397.05</t>
+  </si>
+  <si>
+    <t>28800.00</t>
+  </si>
+  <si>
+    <t>439995.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>144500.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>249350.00</t>
+  </si>
+  <si>
+    <t>347000.00</t>
+  </si>
+  <si>
+    <t>137370.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>140250.00</t>
+  </si>
+  <si>
+    <t>15456.23</t>
+  </si>
+  <si>
+    <t>122064.19</t>
+  </si>
+  <si>
+    <t>741015.43</t>
+  </si>
+  <si>
+    <t>430117.68</t>
+  </si>
+  <si>
+    <t>160350.00</t>
+  </si>
+  <si>
+    <t>27468.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>37800.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>563800.00</t>
+  </si>
+  <si>
+    <t>1027.21</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>59259.00</t>
+  </si>
+  <si>
+    <t>5125.00</t>
   </si>
 </sst>
 </file>
